--- a/results/summary_node_classification_GCN_sdrf.csv.xlsx
+++ b/results/summary_node_classification_GCN_sdrf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,9 +576,211 @@
         <v>0.0023135919597527</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>pubmed</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8476774847870184</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0010155194241377</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8473580121703855</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0010469110843065</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.846713995943205</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0011325317630489</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8466480730223123</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0011543030278077</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8466176470588236</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0009604098341463</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8478346855983772</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001167849348103</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8483950304259635</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0010052663182174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8474797160243406</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0010873095503056</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>squirrel</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3892411143131604</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0033900856868569</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3890585975024016</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0033624805657817</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.39223823246878</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0033218809595902</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3883189241114313</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0033019582183452</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3900672430355427</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0030719037261566</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3913640730067243</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0035002351364185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3941690682036503</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0034508465672269</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3951392891450528</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0033661806518283</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
